--- a/importation/template_insert.xlsx
+++ b/importation/template_insert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documentos\Trabalho\Yupa\Almani\Codes\YupaWebApplicationAPI\importation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B7DC55-5CB5-4305-B1FE-41D94E54395F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1540F32B-524C-4BC2-8536-940673B72918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8D91FF95-1C10-44DB-981F-88682B6A354F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
   <si>
     <t>Lote</t>
   </si>
@@ -152,6 +152,27 @@
   </si>
   <si>
     <t>BBC9A49</t>
+  </si>
+  <si>
+    <t>Troc placa</t>
+  </si>
+  <si>
+    <t>Kit</t>
+  </si>
+  <si>
+    <t>Debitos</t>
+  </si>
+  <si>
+    <t>Venda</t>
+  </si>
+  <si>
+    <t>Vist</t>
+  </si>
+  <si>
+    <t>Pend</t>
+  </si>
+  <si>
+    <t>CRLV</t>
   </si>
 </sst>
 </file>
@@ -635,30 +656,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD96EF83-BE8E-4FA9-A75A-EC0192B55780}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -669,34 +692,31 @@
         <v>35</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>36</v>
       </c>
@@ -714,7 +734,6 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
